--- a/meta/en/3-3-1.xlsx
+++ b/meta/en/3-3-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -113,12 +112,6 @@
     <t>rakhmanovazz@mail.ru</t>
   </si>
   <si>
-    <t>(0312) 32 46 52</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">The number of new HIV infections per 1,000 uninfected key populations defined as the number of new HIV infections per 1000 uninfected population. The number of cases diagnosed for the first time is cases recorded in the reporting year. </t>
   </si>
   <si>
@@ -155,6 +148,12 @@
   </si>
   <si>
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>0 (312) 32 55 46</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -562,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -712,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +719,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
